--- a/data/social/S_1011.xlsx
+++ b/data/social/S_1011.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tul67061\Documents\GitHub\effort_reward\data\social\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6AE9EC-2B3D-8B4D-BFC3-A054072F487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="15380" windowHeight="7880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S_1009" sheetId="1" r:id="rId1"/>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -960,4164 +961,6006 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B51"/>
+      <selection activeCell="A41" sqref="A1:I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="B2">
+      <c r="K2">
         <v>1011</v>
       </c>
-      <c r="C2">
+      <c r="L2">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="E2">
+      <c r="N2">
         <v>60.01</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>560399613</v>
       </c>
-      <c r="H2" s="1">
+      <c r="Q2" s="1">
         <v>43878</v>
       </c>
-      <c r="I2" s="2">
+      <c r="R2" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J2" s="3">
+      <c r="S2" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AD2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="K3">
         <v>1011</v>
       </c>
-      <c r="C3">
+      <c r="L3">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="E3">
+      <c r="N3">
         <v>60.01</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>560399613</v>
       </c>
-      <c r="H3" s="1">
+      <c r="Q3" s="1">
         <v>43878</v>
       </c>
-      <c r="I3" s="2">
+      <c r="R3" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J3" s="3">
+      <c r="S3" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K3">
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="AB3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="s">
         <v>28</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AD3" t="s">
         <v>15</v>
       </c>
-      <c r="V3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AE3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
+      <c r="K4">
         <v>1011</v>
       </c>
-      <c r="C4">
+      <c r="L4">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="N4">
         <v>60.01</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>560399613</v>
       </c>
-      <c r="H4" s="1">
+      <c r="Q4" s="1">
         <v>43878</v>
       </c>
-      <c r="I4" s="2">
+      <c r="R4" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J4" s="3">
+      <c r="S4" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K4">
+      <c r="T4">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="1">
         <v>3</v>
       </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="AB4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="s">
         <v>28</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AD4" t="s">
         <v>15</v>
       </c>
-      <c r="V4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AE4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
+      <c r="K5">
         <v>1011</v>
       </c>
-      <c r="C5">
+      <c r="L5">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="E5">
+      <c r="N5">
         <v>60.01</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>560399613</v>
       </c>
-      <c r="H5" s="1">
+      <c r="Q5" s="1">
         <v>43878</v>
       </c>
-      <c r="I5" s="2">
+      <c r="R5" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J5" s="3">
+      <c r="S5" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K5">
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="1">
         <v>4</v>
       </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
         <v>4</v>
       </c>
-      <c r="S5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="AB5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" t="s">
         <v>27</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AD5" t="s">
         <v>15</v>
       </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AE5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
+      <c r="K6">
         <v>1011</v>
       </c>
-      <c r="C6">
+      <c r="L6">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="N6">
         <v>60.01</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>560399613</v>
       </c>
-      <c r="H6" s="1">
+      <c r="Q6" s="1">
         <v>43878</v>
       </c>
-      <c r="I6" s="2">
+      <c r="R6" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J6" s="3">
+      <c r="S6" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K6">
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="U6">
         <v>21.21</v>
       </c>
-      <c r="M6">
+      <c r="V6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>6388</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6">
+      <c r="Y6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6">
         <v>12</v>
       </c>
-      <c r="T6" t="s">
+      <c r="AC6" t="s">
         <v>29</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AD6" t="s">
         <v>22</v>
       </c>
-      <c r="V6">
+      <c r="AE6">
         <v>0.17865</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
+      <c r="K7">
         <v>1011</v>
       </c>
-      <c r="C7">
+      <c r="L7">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
+      <c r="M7" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="N7">
         <v>60.01</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>560399613</v>
       </c>
-      <c r="H7" s="1">
+      <c r="Q7" s="1">
         <v>43878</v>
       </c>
-      <c r="I7" s="2">
+      <c r="R7" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J7" s="3">
+      <c r="S7" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K7">
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="U7">
         <v>9.91</v>
       </c>
-      <c r="M7">
+      <c r="V7">
         <v>2</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>5353</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7">
+      <c r="Y7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7">
         <v>50</v>
       </c>
-      <c r="T7" t="s">
+      <c r="AC7" t="s">
         <v>29</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AD7" t="s">
         <v>22</v>
       </c>
-      <c r="V7">
+      <c r="AE7">
         <v>0.17297999999999999</v>
       </c>
-      <c r="W7">
+      <c r="AF7">
         <v>2</v>
       </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
         <v>2</v>
       </c>
-      <c r="Z7">
+      <c r="AI7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="K8">
         <v>1011</v>
       </c>
-      <c r="C8">
+      <c r="L8">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="M8" t="s">
         <v>31</v>
       </c>
-      <c r="E8">
+      <c r="N8">
         <v>60.01</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>560399613</v>
       </c>
-      <c r="H8" s="1">
+      <c r="Q8" s="1">
         <v>43878</v>
       </c>
-      <c r="I8" s="2">
+      <c r="R8" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J8" s="3">
+      <c r="S8" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K8">
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="L8">
+      <c r="U8">
         <v>19.95</v>
       </c>
-      <c r="M8">
+      <c r="V8">
         <v>2</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>6588</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8">
+      <c r="Y8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8">
         <v>50</v>
       </c>
-      <c r="T8" t="s">
+      <c r="AC8" t="s">
         <v>29</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AD8" t="s">
         <v>22</v>
       </c>
-      <c r="V8">
+      <c r="AE8">
         <v>0.17282</v>
       </c>
-      <c r="W8">
+      <c r="AF8">
         <v>3</v>
       </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
         <v>3</v>
       </c>
-      <c r="Z8">
+      <c r="AI8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
+      <c r="K9">
         <v>1011</v>
       </c>
-      <c r="C9">
+      <c r="L9">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="N9">
         <v>60.01</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>560399613</v>
       </c>
-      <c r="H9" s="1">
+      <c r="Q9" s="1">
         <v>43878</v>
       </c>
-      <c r="I9" s="2">
+      <c r="R9" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J9" s="3">
+      <c r="S9" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K9">
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="L9">
+      <c r="U9">
         <v>22.47</v>
       </c>
-      <c r="M9">
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>6360</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9">
+      <c r="Y9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9">
         <v>88</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AC9" t="s">
         <v>30</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AD9" t="s">
         <v>22</v>
       </c>
-      <c r="V9">
+      <c r="AE9">
         <v>0.13389999999999999</v>
       </c>
-      <c r="W9">
+      <c r="AF9">
         <v>4</v>
       </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
         <v>4</v>
       </c>
-      <c r="Z9">
+      <c r="AI9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
+      <c r="K10">
         <v>1011</v>
       </c>
-      <c r="C10">
+      <c r="L10">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="M10" t="s">
         <v>31</v>
       </c>
-      <c r="E10">
+      <c r="N10">
         <v>60.01</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>560399613</v>
       </c>
-      <c r="H10" s="1">
+      <c r="Q10" s="1">
         <v>43878</v>
       </c>
-      <c r="I10" s="2">
+      <c r="R10" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J10" s="3">
+      <c r="S10" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K10">
+      <c r="T10">
         <v>9</v>
       </c>
-      <c r="L10">
+      <c r="U10">
         <v>12.42</v>
       </c>
-      <c r="M10">
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
         <v>5341</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10">
+      <c r="Y10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB10">
         <v>12</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AC10" t="s">
         <v>29</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AD10" t="s">
         <v>22</v>
       </c>
-      <c r="V10">
+      <c r="AE10">
         <v>0.1400333</v>
       </c>
-      <c r="W10">
+      <c r="AF10">
         <v>5</v>
       </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
         <v>5</v>
       </c>
-      <c r="Z10">
+      <c r="AI10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="K11">
         <v>1011</v>
       </c>
-      <c r="C11">
+      <c r="L11">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="M11" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
+      <c r="N11">
         <v>60.01</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>560399613</v>
       </c>
-      <c r="H11" s="1">
+      <c r="Q11" s="1">
         <v>43878</v>
       </c>
-      <c r="I11" s="2">
+      <c r="R11" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J11" s="3">
+      <c r="S11" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K11">
+      <c r="T11">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="U11">
         <v>13.67</v>
       </c>
-      <c r="M11">
+      <c r="V11">
         <v>2</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
         <v>5354</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11">
+      <c r="Y11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11">
         <v>88</v>
       </c>
-      <c r="T11" t="s">
+      <c r="AC11" t="s">
         <v>30</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AD11" t="s">
         <v>22</v>
       </c>
-      <c r="V11">
+      <c r="AE11">
         <v>0.17282</v>
       </c>
-      <c r="W11">
+      <c r="AF11">
         <v>6</v>
       </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
         <v>6</v>
       </c>
-      <c r="Z11">
+      <c r="AI11">
         <v>13.67</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="K12">
         <v>1011</v>
       </c>
-      <c r="C12">
+      <c r="L12">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="M12" t="s">
         <v>31</v>
       </c>
-      <c r="E12">
+      <c r="N12">
         <v>60.01</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>560399613</v>
       </c>
-      <c r="H12" s="1">
+      <c r="Q12" s="1">
         <v>43878</v>
       </c>
-      <c r="I12" s="2">
+      <c r="R12" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J12" s="3">
+      <c r="S12" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K12">
+      <c r="T12">
         <v>11</v>
       </c>
-      <c r="L12">
+      <c r="U12">
         <v>18.7</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
         <v>1318</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12">
+      <c r="Y12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB12">
         <v>50</v>
       </c>
-      <c r="T12" t="s">
+      <c r="AC12" t="s">
         <v>29</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AD12" t="s">
         <v>22</v>
       </c>
-      <c r="V12">
+      <c r="AE12">
         <v>0.18396999999999999</v>
       </c>
-      <c r="W12">
+      <c r="AF12">
         <v>7</v>
       </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
         <v>7</v>
       </c>
-      <c r="Z12">
+      <c r="AI12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
+      <c r="K13">
         <v>1011</v>
       </c>
-      <c r="C13">
+      <c r="L13">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="M13" t="s">
         <v>31</v>
       </c>
-      <c r="E13">
+      <c r="N13">
         <v>60.01</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>560399613</v>
       </c>
-      <c r="H13" s="1">
+      <c r="Q13" s="1">
         <v>43878</v>
       </c>
-      <c r="I13" s="2">
+      <c r="R13" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J13" s="3">
+      <c r="S13" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K13">
+      <c r="T13">
         <v>12</v>
       </c>
-      <c r="L13">
+      <c r="U13">
         <v>12.42</v>
       </c>
-      <c r="M13">
+      <c r="V13">
         <v>2</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>6472</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13">
+      <c r="Y13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13">
         <v>88</v>
       </c>
-      <c r="T13" t="s">
+      <c r="AC13" t="s">
         <v>30</v>
       </c>
-      <c r="U13" t="s">
+      <c r="AD13" t="s">
         <v>22</v>
       </c>
-      <c r="V13">
+      <c r="AE13">
         <v>0.18031</v>
       </c>
-      <c r="W13">
+      <c r="AF13">
         <v>8</v>
       </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
         <v>8</v>
       </c>
-      <c r="Z13">
+      <c r="AI13">
         <v>12.42</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
+      <c r="K14">
         <v>1011</v>
       </c>
-      <c r="C14">
+      <c r="L14">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="E14">
+      <c r="N14">
         <v>60.01</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>560399613</v>
       </c>
-      <c r="H14" s="1">
+      <c r="Q14" s="1">
         <v>43878</v>
       </c>
-      <c r="I14" s="2">
+      <c r="R14" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J14" s="3">
+      <c r="S14" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K14">
+      <c r="T14">
         <v>13</v>
       </c>
-      <c r="L14">
+      <c r="U14">
         <v>14.93</v>
       </c>
-      <c r="M14">
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
         <v>6552</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14">
+      <c r="Y14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB14">
         <v>50</v>
       </c>
-      <c r="T14" t="s">
+      <c r="AC14" t="s">
         <v>30</v>
       </c>
-      <c r="U14" t="s">
+      <c r="AD14" t="s">
         <v>22</v>
       </c>
-      <c r="V14">
+      <c r="AE14">
         <v>0.15390000000000001</v>
       </c>
-      <c r="W14">
+      <c r="AF14">
         <v>9</v>
       </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
         <v>9</v>
       </c>
-      <c r="Z14">
+      <c r="AI14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="K15">
         <v>1011</v>
       </c>
-      <c r="C15">
+      <c r="L15">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
+      <c r="M15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="N15">
         <v>60.01</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>560399613</v>
       </c>
-      <c r="H15" s="1">
+      <c r="Q15" s="1">
         <v>43878</v>
       </c>
-      <c r="I15" s="2">
+      <c r="R15" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J15" s="3">
+      <c r="S15" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K15">
+      <c r="T15">
         <v>14</v>
       </c>
-      <c r="L15">
+      <c r="U15">
         <v>17.440000000000001</v>
       </c>
-      <c r="M15">
+      <c r="V15">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
         <v>6517</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15">
+      <c r="Y15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB15">
         <v>12</v>
       </c>
-      <c r="T15" t="s">
+      <c r="AC15" t="s">
         <v>30</v>
       </c>
-      <c r="U15" t="s">
+      <c r="AD15" t="s">
         <v>22</v>
       </c>
-      <c r="V15">
+      <c r="AE15">
         <v>0.18231</v>
       </c>
-      <c r="W15">
+      <c r="AF15">
         <v>10</v>
       </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
         <v>10</v>
       </c>
-      <c r="Z15">
+      <c r="AI15">
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="K16">
         <v>1011</v>
       </c>
-      <c r="C16">
+      <c r="L16">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="M16" t="s">
         <v>31</v>
       </c>
-      <c r="E16">
+      <c r="N16">
         <v>60.01</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>560399613</v>
       </c>
-      <c r="H16" s="1">
+      <c r="Q16" s="1">
         <v>43878</v>
       </c>
-      <c r="I16" s="2">
+      <c r="R16" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J16" s="3">
+      <c r="S16" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K16">
+      <c r="T16">
         <v>15</v>
       </c>
-      <c r="L16">
+      <c r="U16">
         <v>27.49</v>
       </c>
-      <c r="M16">
+      <c r="V16">
         <v>2</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
         <v>6394</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16">
+      <c r="Y16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB16">
         <v>50</v>
       </c>
-      <c r="T16" t="s">
+      <c r="AC16" t="s">
         <v>29</v>
       </c>
-      <c r="U16" t="s">
+      <c r="AD16" t="s">
         <v>22</v>
       </c>
-      <c r="V16">
+      <c r="AE16">
         <v>0.18648000000000001</v>
       </c>
-      <c r="W16">
+      <c r="AF16">
         <v>11</v>
       </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
         <v>11</v>
       </c>
-      <c r="Z16">
+      <c r="AI16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
+      <c r="K17">
         <v>1011</v>
       </c>
-      <c r="C17">
+      <c r="L17">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="M17" t="s">
         <v>31</v>
       </c>
-      <c r="E17">
+      <c r="N17">
         <v>60.01</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>560399613</v>
       </c>
-      <c r="H17" s="1">
+      <c r="Q17" s="1">
         <v>43878</v>
       </c>
-      <c r="I17" s="2">
+      <c r="R17" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J17" s="3">
+      <c r="S17" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K17">
+      <c r="T17">
         <v>16</v>
       </c>
-      <c r="L17">
+      <c r="U17">
         <v>16.190000000000001</v>
       </c>
-      <c r="M17">
+      <c r="V17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>6791</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17">
+      <c r="Y17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17">
         <v>50</v>
       </c>
-      <c r="T17" t="s">
+      <c r="AC17" t="s">
         <v>30</v>
       </c>
-      <c r="U17" t="s">
+      <c r="AD17" t="s">
         <v>22</v>
       </c>
-      <c r="V17">
+      <c r="AE17">
         <v>0.1489</v>
       </c>
-      <c r="W17">
+      <c r="AF17">
         <v>12</v>
       </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
         <v>12</v>
       </c>
-      <c r="Z17">
+      <c r="AI17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="K18">
         <v>1011</v>
       </c>
-      <c r="C18">
+      <c r="L18">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="M18" t="s">
         <v>31</v>
       </c>
-      <c r="E18">
+      <c r="N18">
         <v>60.01</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>560399613</v>
       </c>
-      <c r="H18" s="1">
+      <c r="Q18" s="1">
         <v>43878</v>
       </c>
-      <c r="I18" s="2">
+      <c r="R18" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J18" s="3">
+      <c r="S18" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K18">
+      <c r="T18">
         <v>17</v>
       </c>
-      <c r="L18">
+      <c r="U18">
         <v>14.93</v>
       </c>
-      <c r="M18">
+      <c r="V18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
         <v>6322</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18">
+      <c r="Y18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB18">
         <v>12</v>
       </c>
-      <c r="T18" t="s">
+      <c r="AC18" t="s">
         <v>29</v>
       </c>
-      <c r="U18" t="s">
+      <c r="AD18" t="s">
         <v>22</v>
       </c>
-      <c r="V18">
+      <c r="AE18">
         <v>0.14113329999999999</v>
       </c>
-      <c r="W18">
+      <c r="AF18">
         <v>13</v>
       </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
         <v>13</v>
       </c>
-      <c r="Z18">
+      <c r="AI18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
+      <c r="K19">
         <v>1011</v>
       </c>
-      <c r="C19">
+      <c r="L19">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="M19" t="s">
         <v>31</v>
       </c>
-      <c r="E19">
+      <c r="N19">
         <v>60.01</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>560399613</v>
       </c>
-      <c r="H19" s="1">
+      <c r="Q19" s="1">
         <v>43878</v>
       </c>
-      <c r="I19" s="2">
+      <c r="R19" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J19" s="3">
+      <c r="S19" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K19">
+      <c r="T19">
         <v>18</v>
       </c>
-      <c r="L19">
+      <c r="U19">
         <v>9.91</v>
       </c>
-      <c r="M19">
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
         <v>6351</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19">
+      <c r="Y19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB19">
         <v>88</v>
       </c>
-      <c r="T19" t="s">
+      <c r="AC19" t="s">
         <v>30</v>
       </c>
-      <c r="U19" t="s">
+      <c r="AD19" t="s">
         <v>22</v>
       </c>
-      <c r="V19">
+      <c r="AE19">
         <v>0.16780999999999999</v>
       </c>
-      <c r="W19">
+      <c r="AF19">
         <v>14</v>
       </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
         <v>14</v>
       </c>
-      <c r="Z19">
+      <c r="AI19">
         <v>9.91</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="K20">
         <v>1011</v>
       </c>
-      <c r="C20">
+      <c r="L20">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="M20" t="s">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="N20">
         <v>60.01</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>560399613</v>
       </c>
-      <c r="H20" s="1">
+      <c r="Q20" s="1">
         <v>43878</v>
       </c>
-      <c r="I20" s="2">
+      <c r="R20" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J20" s="3">
+      <c r="S20" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K20">
+      <c r="T20">
         <v>19</v>
       </c>
-      <c r="L20">
+      <c r="U20">
         <v>21.21</v>
       </c>
-      <c r="M20">
+      <c r="V20">
         <v>2</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
         <v>6351</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20">
+      <c r="Y20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB20">
         <v>88</v>
       </c>
-      <c r="T20" t="s">
+      <c r="AC20" t="s">
         <v>29</v>
       </c>
-      <c r="U20" t="s">
+      <c r="AD20" t="s">
         <v>22</v>
       </c>
-      <c r="V20">
+      <c r="AE20">
         <v>0.18464</v>
       </c>
-      <c r="W20">
+      <c r="AF20">
         <v>15</v>
       </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
         <v>15</v>
       </c>
-      <c r="Z20">
+      <c r="AI20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="K21">
         <v>1011</v>
       </c>
-      <c r="C21">
+      <c r="L21">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="M21" t="s">
         <v>31</v>
       </c>
-      <c r="E21">
+      <c r="N21">
         <v>60.01</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>560399613</v>
       </c>
-      <c r="H21" s="1">
+      <c r="Q21" s="1">
         <v>43878</v>
       </c>
-      <c r="I21" s="2">
+      <c r="R21" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J21" s="3">
+      <c r="S21" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K21">
+      <c r="T21">
         <v>20</v>
       </c>
-      <c r="L21">
+      <c r="U21">
         <v>8.65</v>
       </c>
-      <c r="M21">
+      <c r="V21">
         <v>2</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>6387</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21">
+      <c r="Y21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB21">
         <v>12</v>
       </c>
-      <c r="T21" t="s">
+      <c r="AC21" t="s">
         <v>29</v>
       </c>
-      <c r="U21" t="s">
+      <c r="AD21" t="s">
         <v>22</v>
       </c>
-      <c r="V21">
+      <c r="AE21">
         <v>0.18048</v>
       </c>
-      <c r="W21">
+      <c r="AF21">
         <v>16</v>
       </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
         <v>16</v>
       </c>
-      <c r="Z21">
+      <c r="AI21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="K22">
         <v>1011</v>
       </c>
-      <c r="C22">
+      <c r="L22">
         <v>71</v>
       </c>
-      <c r="D22" t="s">
+      <c r="M22" t="s">
         <v>31</v>
       </c>
-      <c r="E22">
+      <c r="N22">
         <v>60.01</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>560399613</v>
       </c>
-      <c r="H22" s="1">
+      <c r="Q22" s="1">
         <v>43878</v>
       </c>
-      <c r="I22" s="2">
+      <c r="R22" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J22" s="3">
+      <c r="S22" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K22">
+      <c r="T22">
         <v>21</v>
       </c>
-      <c r="L22">
+      <c r="U22">
         <v>24.98</v>
       </c>
-      <c r="M22">
+      <c r="V22">
         <v>2</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
         <v>6352</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22">
+      <c r="Y22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB22">
         <v>88</v>
       </c>
-      <c r="T22" t="s">
+      <c r="AC22" t="s">
         <v>30</v>
       </c>
-      <c r="U22" t="s">
+      <c r="AD22" t="s">
         <v>22</v>
       </c>
-      <c r="V22">
+      <c r="AE22">
         <v>0.1672333</v>
       </c>
-      <c r="W22">
+      <c r="AF22">
         <v>17</v>
       </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
         <v>17</v>
       </c>
-      <c r="Z22">
+      <c r="AI22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="K23">
         <v>1011</v>
       </c>
-      <c r="C23">
+      <c r="L23">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
+      <c r="M23" t="s">
         <v>31</v>
       </c>
-      <c r="E23">
+      <c r="N23">
         <v>60.01</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>560399613</v>
       </c>
-      <c r="H23" s="1">
+      <c r="Q23" s="1">
         <v>43878</v>
       </c>
-      <c r="I23" s="2">
+      <c r="R23" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J23" s="3">
+      <c r="S23" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K23">
+      <c r="T23">
         <v>22</v>
       </c>
-      <c r="L23">
+      <c r="U23">
         <v>16.190000000000001</v>
       </c>
-      <c r="M23">
+      <c r="V23">
         <v>2</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>6469</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23">
+      <c r="Y23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23">
         <v>12</v>
       </c>
-      <c r="T23" t="s">
+      <c r="AC23" t="s">
         <v>29</v>
       </c>
-      <c r="U23" t="s">
+      <c r="AD23" t="s">
         <v>22</v>
       </c>
-      <c r="V23">
+      <c r="AE23">
         <v>0.17415</v>
       </c>
-      <c r="W23">
+      <c r="AF23">
         <v>18</v>
       </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
         <v>18</v>
       </c>
-      <c r="Z23">
+      <c r="AI23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="K24">
         <v>1011</v>
       </c>
-      <c r="C24">
+      <c r="L24">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="M24" t="s">
         <v>31</v>
       </c>
-      <c r="E24">
+      <c r="N24">
         <v>60.01</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <v>560399613</v>
       </c>
-      <c r="H24" s="1">
+      <c r="Q24" s="1">
         <v>43878</v>
       </c>
-      <c r="I24" s="2">
+      <c r="R24" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J24" s="3">
+      <c r="S24" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K24">
+      <c r="T24">
         <v>23</v>
       </c>
-      <c r="L24">
+      <c r="U24">
         <v>28.74</v>
       </c>
-      <c r="M24">
+      <c r="V24">
         <v>2</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
         <v>6502</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24">
+      <c r="Y24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB24">
         <v>50</v>
       </c>
-      <c r="T24" t="s">
+      <c r="AC24" t="s">
         <v>30</v>
       </c>
-      <c r="U24" t="s">
+      <c r="AD24" t="s">
         <v>22</v>
       </c>
-      <c r="V24">
+      <c r="AE24">
         <v>0.18681</v>
       </c>
-      <c r="W24">
+      <c r="AF24">
         <v>19</v>
       </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
         <v>19</v>
       </c>
-      <c r="Z24">
+      <c r="AI24">
         <v>28.74</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="K25">
         <v>1011</v>
       </c>
-      <c r="C25">
+      <c r="L25">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
+      <c r="M25" t="s">
         <v>31</v>
       </c>
-      <c r="E25">
+      <c r="N25">
         <v>60.01</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
         <v>560399613</v>
       </c>
-      <c r="H25" s="1">
+      <c r="Q25" s="1">
         <v>43878</v>
       </c>
-      <c r="I25" s="2">
+      <c r="R25" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J25" s="3">
+      <c r="S25" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K25">
+      <c r="T25">
         <v>24</v>
       </c>
-      <c r="L25">
+      <c r="U25">
         <v>28.74</v>
       </c>
-      <c r="M25">
+      <c r="V25">
         <v>2</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
         <v>6401</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25">
+      <c r="Y25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB25">
         <v>12</v>
       </c>
-      <c r="T25" t="s">
+      <c r="AC25" t="s">
         <v>29</v>
       </c>
-      <c r="U25" t="s">
+      <c r="AD25" t="s">
         <v>22</v>
       </c>
-      <c r="V25">
+      <c r="AE25">
         <v>0.18565000000000001</v>
       </c>
-      <c r="W25">
+      <c r="AF25">
         <v>20</v>
       </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
         <v>20</v>
       </c>
-      <c r="Z25">
+      <c r="AI25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="K26">
         <v>1011</v>
       </c>
-      <c r="C26">
+      <c r="L26">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
+      <c r="M26" t="s">
         <v>31</v>
       </c>
-      <c r="E26">
+      <c r="N26">
         <v>60.01</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <v>560399613</v>
       </c>
-      <c r="H26" s="1">
+      <c r="Q26" s="1">
         <v>43878</v>
       </c>
-      <c r="I26" s="2">
+      <c r="R26" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J26" s="3">
+      <c r="S26" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K26">
+      <c r="T26">
         <v>25</v>
       </c>
-      <c r="L26">
+      <c r="U26">
         <v>17.440000000000001</v>
       </c>
-      <c r="M26">
+      <c r="V26">
         <v>2</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
         <v>6297</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26">
+      <c r="Y26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB26">
         <v>50</v>
       </c>
-      <c r="T26" t="s">
+      <c r="AC26" t="s">
         <v>30</v>
       </c>
-      <c r="U26" t="s">
+      <c r="AD26" t="s">
         <v>22</v>
       </c>
-      <c r="V26">
+      <c r="AE26">
         <v>0.1616667</v>
       </c>
-      <c r="W26">
+      <c r="AF26">
         <v>21</v>
       </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
         <v>21</v>
       </c>
-      <c r="Z26">
+      <c r="AI26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="K27">
         <v>1011</v>
       </c>
-      <c r="C27">
+      <c r="L27">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
+      <c r="M27" t="s">
         <v>31</v>
       </c>
-      <c r="E27">
+      <c r="N27">
         <v>60.01</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
         <v>560399613</v>
       </c>
-      <c r="H27" s="1">
+      <c r="Q27" s="1">
         <v>43878</v>
       </c>
-      <c r="I27" s="2">
+      <c r="R27" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J27" s="3">
+      <c r="S27" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K27">
+      <c r="T27">
         <v>26</v>
       </c>
-      <c r="L27">
+      <c r="U27">
         <v>27.49</v>
       </c>
-      <c r="M27">
+      <c r="V27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
         <v>6133</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27">
+      <c r="Y27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB27">
         <v>12</v>
       </c>
-      <c r="T27" t="s">
+      <c r="AC27" t="s">
         <v>29</v>
       </c>
-      <c r="U27" t="s">
+      <c r="AD27" t="s">
         <v>22</v>
       </c>
-      <c r="V27">
+      <c r="AE27">
         <v>0.17580999999999999</v>
       </c>
-      <c r="W27">
+      <c r="AF27">
         <v>22</v>
       </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
         <v>22</v>
       </c>
-      <c r="Z27">
+      <c r="AI27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="K28">
         <v>1011</v>
       </c>
-      <c r="C28">
+      <c r="L28">
         <v>71</v>
       </c>
-      <c r="D28" t="s">
+      <c r="M28" t="s">
         <v>31</v>
       </c>
-      <c r="E28">
+      <c r="N28">
         <v>60.01</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>560399613</v>
       </c>
-      <c r="H28" s="1">
+      <c r="Q28" s="1">
         <v>43878</v>
       </c>
-      <c r="I28" s="2">
+      <c r="R28" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J28" s="3">
+      <c r="S28" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K28">
+      <c r="T28">
         <v>27</v>
       </c>
-      <c r="L28">
+      <c r="U28">
         <v>22.47</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
         <v>526</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28">
+      <c r="Y28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB28">
         <v>12</v>
       </c>
-      <c r="T28" t="s">
+      <c r="AC28" t="s">
         <v>29</v>
       </c>
-      <c r="U28" t="s">
+      <c r="AD28" t="s">
         <v>22</v>
       </c>
-      <c r="V28">
+      <c r="AE28">
         <v>0.18214</v>
       </c>
-      <c r="W28">
+      <c r="AF28">
         <v>23</v>
       </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
         <v>23</v>
       </c>
-      <c r="Z28">
+      <c r="AI28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="K29">
         <v>1011</v>
       </c>
-      <c r="C29">
+      <c r="L29">
         <v>71</v>
       </c>
-      <c r="D29" t="s">
+      <c r="M29" t="s">
         <v>31</v>
       </c>
-      <c r="E29">
+      <c r="N29">
         <v>60.01</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <v>560399613</v>
       </c>
-      <c r="H29" s="1">
+      <c r="Q29" s="1">
         <v>43878</v>
       </c>
-      <c r="I29" s="2">
+      <c r="R29" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J29" s="3">
+      <c r="S29" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K29">
+      <c r="T29">
         <v>28</v>
       </c>
-      <c r="L29">
+      <c r="U29">
         <v>28.74</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
         <v>333</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S29">
+      <c r="Y29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB29">
         <v>88</v>
       </c>
-      <c r="T29" t="s">
+      <c r="AC29" t="s">
         <v>30</v>
       </c>
-      <c r="U29" t="s">
+      <c r="AD29" t="s">
         <v>22</v>
       </c>
-      <c r="V29">
+      <c r="AE29">
         <v>0.1444667</v>
       </c>
-      <c r="W29">
+      <c r="AF29">
         <v>24</v>
       </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
         <v>24</v>
       </c>
-      <c r="Z29">
+      <c r="AI29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
         <v>26</v>
       </c>
-      <c r="B30">
+      <c r="K30">
         <v>1011</v>
       </c>
-      <c r="C30">
+      <c r="L30">
         <v>71</v>
       </c>
-      <c r="D30" t="s">
+      <c r="M30" t="s">
         <v>31</v>
       </c>
-      <c r="E30">
+      <c r="N30">
         <v>60.01</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
         <v>560399613</v>
       </c>
-      <c r="H30" s="1">
+      <c r="Q30" s="1">
         <v>43878</v>
       </c>
-      <c r="I30" s="2">
+      <c r="R30" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J30" s="3">
+      <c r="S30" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K30">
+      <c r="T30">
         <v>29</v>
       </c>
-      <c r="L30">
+      <c r="U30">
         <v>18.7</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
         <v>55</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30">
+      <c r="Y30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB30">
         <v>88</v>
       </c>
-      <c r="T30" t="s">
+      <c r="AC30" t="s">
         <v>30</v>
       </c>
-      <c r="U30" t="s">
+      <c r="AD30" t="s">
         <v>22</v>
       </c>
-      <c r="V30">
+      <c r="AE30">
         <v>0.1505667</v>
       </c>
-      <c r="W30">
+      <c r="AF30">
         <v>25</v>
       </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30">
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
         <v>25</v>
       </c>
-      <c r="Z30">
+      <c r="AI30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
         <v>26</v>
       </c>
-      <c r="B31">
+      <c r="K31">
         <v>1011</v>
       </c>
-      <c r="C31">
+      <c r="L31">
         <v>71</v>
       </c>
-      <c r="D31" t="s">
+      <c r="M31" t="s">
         <v>31</v>
       </c>
-      <c r="E31">
+      <c r="N31">
         <v>60.01</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
         <v>560399613</v>
       </c>
-      <c r="H31" s="1">
+      <c r="Q31" s="1">
         <v>43878</v>
       </c>
-      <c r="I31" s="2">
+      <c r="R31" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J31" s="3">
+      <c r="S31" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K31">
+      <c r="T31">
         <v>30</v>
       </c>
-      <c r="L31">
+      <c r="U31">
         <v>23.72</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
         <v>285</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S31">
+      <c r="Y31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB31">
         <v>50</v>
       </c>
-      <c r="T31" t="s">
+      <c r="AC31" t="s">
         <v>29</v>
       </c>
-      <c r="U31" t="s">
+      <c r="AD31" t="s">
         <v>22</v>
       </c>
-      <c r="V31">
+      <c r="AE31">
         <v>0.16899</v>
       </c>
-      <c r="W31">
+      <c r="AF31">
         <v>26</v>
       </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31">
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
         <v>26</v>
       </c>
-      <c r="Z31">
+      <c r="AI31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="K32">
         <v>1011</v>
       </c>
-      <c r="C32">
+      <c r="L32">
         <v>71</v>
       </c>
-      <c r="D32" t="s">
+      <c r="M32" t="s">
         <v>31</v>
       </c>
-      <c r="E32">
+      <c r="N32">
         <v>60.01</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>560399613</v>
       </c>
-      <c r="H32" s="1">
+      <c r="Q32" s="1">
         <v>43878</v>
       </c>
-      <c r="I32" s="2">
+      <c r="R32" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J32" s="3">
+      <c r="S32" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K32">
+      <c r="T32">
         <v>31</v>
       </c>
-      <c r="L32">
+      <c r="U32">
         <v>17.440000000000001</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
         <v>308</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32">
+      <c r="Y32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB32">
         <v>88</v>
       </c>
-      <c r="T32" t="s">
+      <c r="AC32" t="s">
         <v>30</v>
       </c>
-      <c r="U32" t="s">
+      <c r="AD32" t="s">
         <v>22</v>
       </c>
-      <c r="V32">
+      <c r="AE32">
         <v>0.17982000000000001</v>
       </c>
-      <c r="W32">
+      <c r="AF32">
         <v>27</v>
       </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32">
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
         <v>27</v>
       </c>
-      <c r="Z32">
+      <c r="AI32">
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
         <v>26</v>
       </c>
-      <c r="B33">
+      <c r="K33">
         <v>1011</v>
       </c>
-      <c r="C33">
+      <c r="L33">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
+      <c r="M33" t="s">
         <v>31</v>
       </c>
-      <c r="E33">
+      <c r="N33">
         <v>60.01</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
         <v>560399613</v>
       </c>
-      <c r="H33" s="1">
+      <c r="Q33" s="1">
         <v>43878</v>
       </c>
-      <c r="I33" s="2">
+      <c r="R33" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J33" s="3">
+      <c r="S33" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K33">
-        <v>32</v>
-      </c>
-      <c r="L33">
+      <c r="T33">
+        <v>32</v>
+      </c>
+      <c r="U33">
         <v>26.23</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
         <v>111</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33">
+      <c r="Y33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB33">
         <v>50</v>
       </c>
-      <c r="T33" t="s">
+      <c r="AC33" t="s">
         <v>29</v>
       </c>
-      <c r="U33" t="s">
+      <c r="AD33" t="s">
         <v>22</v>
       </c>
-      <c r="V33">
+      <c r="AE33">
         <v>0.17963999999999999</v>
       </c>
-      <c r="W33">
+      <c r="AF33">
         <v>28</v>
       </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33">
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
         <v>28</v>
       </c>
-      <c r="Z33">
+      <c r="AI33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
         <v>26</v>
       </c>
-      <c r="B34">
+      <c r="K34">
         <v>1011</v>
       </c>
-      <c r="C34">
+      <c r="L34">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
+      <c r="M34" t="s">
         <v>31</v>
       </c>
-      <c r="E34">
+      <c r="N34">
         <v>60.01</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
         <v>560399613</v>
       </c>
-      <c r="H34" s="1">
+      <c r="Q34" s="1">
         <v>43878</v>
       </c>
-      <c r="I34" s="2">
+      <c r="R34" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J34" s="3">
+      <c r="S34" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K34">
+      <c r="T34">
         <v>33</v>
       </c>
-      <c r="L34">
+      <c r="U34">
         <v>12.42</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
         <v>242</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34">
+      <c r="Y34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB34">
         <v>50</v>
       </c>
-      <c r="T34" t="s">
+      <c r="AC34" t="s">
         <v>30</v>
       </c>
-      <c r="U34" t="s">
+      <c r="AD34" t="s">
         <v>22</v>
       </c>
-      <c r="V34">
+      <c r="AE34">
         <v>0.16276669999999999</v>
       </c>
-      <c r="W34">
+      <c r="AF34">
         <v>29</v>
       </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34">
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
         <v>29</v>
       </c>
-      <c r="Z34">
+      <c r="AI34">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
         <v>26</v>
       </c>
-      <c r="B35">
+      <c r="K35">
         <v>1011</v>
       </c>
-      <c r="C35">
+      <c r="L35">
         <v>71</v>
       </c>
-      <c r="D35" t="s">
+      <c r="M35" t="s">
         <v>31</v>
       </c>
-      <c r="E35">
+      <c r="N35">
         <v>60.01</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>560399613</v>
       </c>
-      <c r="H35" s="1">
+      <c r="Q35" s="1">
         <v>43878</v>
       </c>
-      <c r="I35" s="2">
+      <c r="R35" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J35" s="3">
+      <c r="S35" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K35">
+      <c r="T35">
         <v>34</v>
       </c>
-      <c r="L35">
+      <c r="U35">
         <v>9.91</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
         <v>194</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S35">
+      <c r="Y35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB35">
         <v>12</v>
       </c>
-      <c r="T35" t="s">
+      <c r="AC35" t="s">
         <v>29</v>
       </c>
-      <c r="U35" t="s">
+      <c r="AD35" t="s">
         <v>22</v>
       </c>
-      <c r="V35">
+      <c r="AE35">
         <v>0.19782</v>
       </c>
-      <c r="W35">
+      <c r="AF35">
         <v>30</v>
       </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
         <v>30</v>
       </c>
-      <c r="Z35">
+      <c r="AI35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
         <v>26</v>
       </c>
-      <c r="B36">
+      <c r="K36">
         <v>1011</v>
       </c>
-      <c r="C36">
+      <c r="L36">
         <v>71</v>
       </c>
-      <c r="D36" t="s">
+      <c r="M36" t="s">
         <v>31</v>
       </c>
-      <c r="E36">
+      <c r="N36">
         <v>60.01</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
         <v>560399613</v>
       </c>
-      <c r="H36" s="1">
+      <c r="Q36" s="1">
         <v>43878</v>
       </c>
-      <c r="I36" s="2">
+      <c r="R36" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J36" s="3">
+      <c r="S36" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K36">
+      <c r="T36">
         <v>35</v>
       </c>
-      <c r="L36">
+      <c r="U36">
         <v>21.21</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
         <v>3586</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36">
+      <c r="Y36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB36">
         <v>50</v>
       </c>
-      <c r="T36" t="s">
+      <c r="AC36" t="s">
         <v>29</v>
       </c>
-      <c r="U36" t="s">
+      <c r="AD36" t="s">
         <v>22</v>
       </c>
-      <c r="V36">
+      <c r="AE36">
         <v>0.18964</v>
       </c>
-      <c r="W36">
+      <c r="AF36">
         <v>31</v>
       </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36">
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
         <v>31</v>
       </c>
-      <c r="Z36">
+      <c r="AI36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
         <v>26</v>
       </c>
-      <c r="B37">
+      <c r="K37">
         <v>1011</v>
       </c>
-      <c r="C37">
+      <c r="L37">
         <v>71</v>
       </c>
-      <c r="D37" t="s">
+      <c r="M37" t="s">
         <v>31</v>
       </c>
-      <c r="E37">
+      <c r="N37">
         <v>60.01</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <v>560399613</v>
       </c>
-      <c r="H37" s="1">
+      <c r="Q37" s="1">
         <v>43878</v>
       </c>
-      <c r="I37" s="2">
+      <c r="R37" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J37" s="3">
+      <c r="S37" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K37">
+      <c r="T37">
         <v>36</v>
       </c>
-      <c r="L37">
+      <c r="U37">
         <v>23.72</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
         <v>268</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S37">
+      <c r="Y37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB37">
         <v>88</v>
       </c>
-      <c r="T37" t="s">
+      <c r="AC37" t="s">
         <v>30</v>
       </c>
-      <c r="U37" t="s">
+      <c r="AD37" t="s">
         <v>22</v>
       </c>
-      <c r="V37">
+      <c r="AE37">
         <v>0.20881</v>
       </c>
-      <c r="W37">
-        <v>32</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <v>32</v>
-      </c>
-      <c r="Z37">
+      <c r="AF37">
+        <v>32</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <v>32</v>
+      </c>
+      <c r="AI37">
         <v>23.72</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
         <v>26</v>
       </c>
-      <c r="B38">
+      <c r="K38">
         <v>1011</v>
       </c>
-      <c r="C38">
+      <c r="L38">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
+      <c r="M38" t="s">
         <v>31</v>
       </c>
-      <c r="E38">
+      <c r="N38">
         <v>60.01</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
         <v>560399613</v>
       </c>
-      <c r="H38" s="1">
+      <c r="Q38" s="1">
         <v>43878</v>
       </c>
-      <c r="I38" s="2">
+      <c r="R38" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J38" s="3">
+      <c r="S38" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K38">
+      <c r="T38">
         <v>37</v>
       </c>
-      <c r="L38">
+      <c r="U38">
         <v>22.47</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
         <v>2869</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S38">
+      <c r="Y38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB38">
         <v>50</v>
       </c>
-      <c r="T38" t="s">
+      <c r="AC38" t="s">
         <v>29</v>
       </c>
-      <c r="U38" t="s">
+      <c r="AD38" t="s">
         <v>22</v>
       </c>
-      <c r="V38">
+      <c r="AE38">
         <v>0.19564999999999999</v>
       </c>
-      <c r="W38">
+      <c r="AF38">
         <v>33</v>
       </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38">
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
         <v>33</v>
       </c>
-      <c r="Z38">
+      <c r="AI38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
         <v>26</v>
       </c>
-      <c r="B39">
+      <c r="K39">
         <v>1011</v>
       </c>
-      <c r="C39">
+      <c r="L39">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
+      <c r="M39" t="s">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="N39">
         <v>60.01</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <v>560399613</v>
       </c>
-      <c r="H39" s="1">
+      <c r="Q39" s="1">
         <v>43878</v>
       </c>
-      <c r="I39" s="2">
+      <c r="R39" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J39" s="3">
+      <c r="S39" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K39">
+      <c r="T39">
         <v>38</v>
       </c>
-      <c r="L39">
+      <c r="U39">
         <v>8.65</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>2003</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39">
+      <c r="Y39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB39">
         <v>88</v>
       </c>
-      <c r="T39" t="s">
+      <c r="AC39" t="s">
         <v>30</v>
       </c>
-      <c r="U39" t="s">
+      <c r="AD39" t="s">
         <v>22</v>
       </c>
-      <c r="V39">
+      <c r="AE39">
         <v>0.21871879999999999</v>
       </c>
-      <c r="W39">
+      <c r="AF39">
         <v>34</v>
       </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39">
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
         <v>34</v>
       </c>
-      <c r="Z39">
+      <c r="AI39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
         <v>26</v>
       </c>
-      <c r="B40">
+      <c r="K40">
         <v>1011</v>
       </c>
-      <c r="C40">
+      <c r="L40">
         <v>71</v>
       </c>
-      <c r="D40" t="s">
+      <c r="M40" t="s">
         <v>31</v>
       </c>
-      <c r="E40">
+      <c r="N40">
         <v>60.01</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
         <v>560399613</v>
       </c>
-      <c r="H40" s="1">
+      <c r="Q40" s="1">
         <v>43878</v>
       </c>
-      <c r="I40" s="2">
+      <c r="R40" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J40" s="3">
+      <c r="S40" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K40">
+      <c r="T40">
         <v>39</v>
       </c>
-      <c r="L40">
+      <c r="U40">
         <v>24.98</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
         <v>892</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40">
+      <c r="Y40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB40">
         <v>12</v>
       </c>
-      <c r="T40" t="s">
+      <c r="AC40" t="s">
         <v>29</v>
       </c>
-      <c r="U40" t="s">
+      <c r="AD40" t="s">
         <v>22</v>
       </c>
-      <c r="V40">
+      <c r="AE40">
         <v>0.19597999999999999</v>
       </c>
-      <c r="W40">
+      <c r="AF40">
         <v>35</v>
       </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40">
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
         <v>35</v>
       </c>
-      <c r="Z40">
+      <c r="AI40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
         <v>26</v>
       </c>
-      <c r="B41">
+      <c r="K41">
         <v>1011</v>
       </c>
-      <c r="C41">
+      <c r="L41">
         <v>71</v>
       </c>
-      <c r="D41" t="s">
+      <c r="M41" t="s">
         <v>31</v>
       </c>
-      <c r="E41">
+      <c r="N41">
         <v>60.01</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
         <v>560399613</v>
       </c>
-      <c r="H41" s="1">
+      <c r="Q41" s="1">
         <v>43878</v>
       </c>
-      <c r="I41" s="2">
+      <c r="R41" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J41" s="3">
+      <c r="S41" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K41">
+      <c r="T41">
         <v>40</v>
       </c>
-      <c r="L41">
+      <c r="U41">
         <v>26.23</v>
       </c>
-      <c r="M41">
+      <c r="V41">
         <v>2</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
         <v>6758</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41">
+      <c r="Y41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB41">
         <v>12</v>
       </c>
-      <c r="T41" t="s">
+      <c r="AC41" t="s">
         <v>29</v>
       </c>
-      <c r="U41" t="s">
+      <c r="AD41" t="s">
         <v>22</v>
       </c>
-      <c r="V41">
+      <c r="AE41">
         <v>0.19497999999999999</v>
       </c>
-      <c r="W41">
+      <c r="AF41">
         <v>36</v>
       </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41">
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
         <v>36</v>
       </c>
-      <c r="Z41">
+      <c r="AI41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
         <v>26</v>
       </c>
-      <c r="B42">
+      <c r="K42">
         <v>1011</v>
       </c>
-      <c r="C42">
+      <c r="L42">
         <v>71</v>
       </c>
-      <c r="D42" t="s">
+      <c r="M42" t="s">
         <v>31</v>
       </c>
-      <c r="E42">
+      <c r="N42">
         <v>60.01</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
         <v>560399613</v>
       </c>
-      <c r="H42" s="1">
+      <c r="Q42" s="1">
         <v>43878</v>
       </c>
-      <c r="I42" s="2">
+      <c r="R42" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J42" s="3">
+      <c r="S42" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K42">
+      <c r="T42">
         <v>41</v>
       </c>
-      <c r="L42">
+      <c r="U42">
         <v>26.23</v>
       </c>
-      <c r="M42">
+      <c r="V42">
         <v>2</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
         <v>6595</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S42">
+      <c r="Y42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB42">
         <v>88</v>
       </c>
-      <c r="T42" t="s">
+      <c r="AC42" t="s">
         <v>30</v>
       </c>
-      <c r="U42" t="s">
+      <c r="AD42" t="s">
         <v>22</v>
       </c>
-      <c r="V42">
+      <c r="AE42">
         <v>0.1777667</v>
       </c>
-      <c r="W42">
+      <c r="AF42">
         <v>37</v>
       </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42">
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42">
         <v>37</v>
       </c>
-      <c r="Z42">
+      <c r="AI42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
         <v>26</v>
       </c>
-      <c r="B43">
+      <c r="K43">
         <v>1011</v>
       </c>
-      <c r="C43">
+      <c r="L43">
         <v>71</v>
       </c>
-      <c r="D43" t="s">
+      <c r="M43" t="s">
         <v>31</v>
       </c>
-      <c r="E43">
+      <c r="N43">
         <v>60.01</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
         <v>560399613</v>
       </c>
-      <c r="H43" s="1">
+      <c r="Q43" s="1">
         <v>43878</v>
       </c>
-      <c r="I43" s="2">
+      <c r="R43" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J43" s="3">
+      <c r="S43" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K43">
+      <c r="T43">
         <v>42</v>
       </c>
-      <c r="L43">
+      <c r="U43">
         <v>14.93</v>
       </c>
-      <c r="M43">
+      <c r="V43">
         <v>2</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
         <v>7299</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43">
+      <c r="Y43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB43">
         <v>88</v>
       </c>
-      <c r="T43" t="s">
+      <c r="AC43" t="s">
         <v>30</v>
       </c>
-      <c r="U43" t="s">
+      <c r="AD43" t="s">
         <v>22</v>
       </c>
-      <c r="V43">
+      <c r="AE43">
         <v>0.16113330000000001</v>
       </c>
-      <c r="W43">
+      <c r="AF43">
         <v>38</v>
       </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43">
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
         <v>38</v>
       </c>
-      <c r="Z43">
+      <c r="AI43">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
         <v>26</v>
       </c>
-      <c r="B44">
+      <c r="K44">
         <v>1011</v>
       </c>
-      <c r="C44">
+      <c r="L44">
         <v>71</v>
       </c>
-      <c r="D44" t="s">
+      <c r="M44" t="s">
         <v>31</v>
       </c>
-      <c r="E44">
+      <c r="N44">
         <v>60.01</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
         <v>560399613</v>
       </c>
-      <c r="H44" s="1">
+      <c r="Q44" s="1">
         <v>43878</v>
       </c>
-      <c r="I44" s="2">
+      <c r="R44" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J44" s="3">
+      <c r="S44" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K44">
+      <c r="T44">
         <v>43</v>
       </c>
-      <c r="L44">
+      <c r="U44">
         <v>24.98</v>
       </c>
-      <c r="M44">
+      <c r="V44">
         <v>2</v>
       </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
         <v>7318</v>
       </c>
-      <c r="P44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S44">
+      <c r="Y44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB44">
         <v>50</v>
       </c>
-      <c r="T44" t="s">
+      <c r="AC44" t="s">
         <v>30</v>
       </c>
-      <c r="U44" t="s">
+      <c r="AD44" t="s">
         <v>22</v>
       </c>
-      <c r="V44">
+      <c r="AE44">
         <v>0.18890000000000001</v>
       </c>
-      <c r="W44">
+      <c r="AF44">
         <v>39</v>
       </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44">
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
         <v>39</v>
       </c>
-      <c r="Z44">
+      <c r="AI44">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
         <v>26</v>
       </c>
-      <c r="B45">
+      <c r="K45">
         <v>1011</v>
       </c>
-      <c r="C45">
+      <c r="L45">
         <v>71</v>
       </c>
-      <c r="D45" t="s">
+      <c r="M45" t="s">
         <v>31</v>
       </c>
-      <c r="E45">
+      <c r="N45">
         <v>60.01</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>560399613</v>
       </c>
-      <c r="H45" s="1">
+      <c r="Q45" s="1">
         <v>43878</v>
       </c>
-      <c r="I45" s="2">
+      <c r="R45" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J45" s="3">
+      <c r="S45" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K45">
+      <c r="T45">
         <v>44</v>
       </c>
-      <c r="L45">
+      <c r="U45">
         <v>11.16</v>
       </c>
-      <c r="M45">
+      <c r="V45">
         <v>2</v>
       </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
         <v>6714</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45">
+      <c r="Y45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB45">
         <v>88</v>
       </c>
-      <c r="T45" t="s">
+      <c r="AC45" t="s">
         <v>29</v>
       </c>
-      <c r="U45" t="s">
+      <c r="AD45" t="s">
         <v>22</v>
       </c>
-      <c r="V45">
+      <c r="AE45">
         <v>0.17630999999999999</v>
       </c>
-      <c r="W45">
+      <c r="AF45">
         <v>40</v>
       </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45">
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
         <v>40</v>
       </c>
-      <c r="Z45">
+      <c r="AI45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
         <v>26</v>
       </c>
-      <c r="B46">
+      <c r="K46">
         <v>1011</v>
       </c>
-      <c r="C46">
+      <c r="L46">
         <v>71</v>
       </c>
-      <c r="D46" t="s">
+      <c r="M46" t="s">
         <v>31</v>
       </c>
-      <c r="E46">
+      <c r="N46">
         <v>60.01</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
         <v>560399613</v>
       </c>
-      <c r="H46" s="1">
+      <c r="Q46" s="1">
         <v>43878</v>
       </c>
-      <c r="I46" s="2">
+      <c r="R46" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J46" s="3">
+      <c r="S46" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K46">
+      <c r="T46">
         <v>45</v>
       </c>
-      <c r="L46">
+      <c r="U46">
         <v>19.95</v>
       </c>
-      <c r="M46">
+      <c r="V46">
         <v>2</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
         <v>6488</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46">
+      <c r="Y46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB46">
         <v>12</v>
       </c>
-      <c r="T46" t="s">
+      <c r="AC46" t="s">
         <v>29</v>
       </c>
-      <c r="U46" t="s">
+      <c r="AD46" t="s">
         <v>22</v>
       </c>
-      <c r="V46">
+      <c r="AE46">
         <v>0.18582000000000001</v>
       </c>
-      <c r="W46">
+      <c r="AF46">
         <v>41</v>
       </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
         <v>41</v>
       </c>
-      <c r="Z46">
+      <c r="AI46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
         <v>26</v>
       </c>
-      <c r="B47">
+      <c r="K47">
         <v>1011</v>
       </c>
-      <c r="C47">
+      <c r="L47">
         <v>71</v>
       </c>
-      <c r="D47" t="s">
+      <c r="M47" t="s">
         <v>31</v>
       </c>
-      <c r="E47">
+      <c r="N47">
         <v>60.01</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
         <v>560399613</v>
       </c>
-      <c r="H47" s="1">
+      <c r="Q47" s="1">
         <v>43878</v>
       </c>
-      <c r="I47" s="2">
+      <c r="R47" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J47" s="3">
+      <c r="S47" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K47">
+      <c r="T47">
         <v>46</v>
       </c>
-      <c r="L47">
+      <c r="U47">
         <v>18.7</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
         <v>288</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47">
+      <c r="Y47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB47">
         <v>12</v>
       </c>
-      <c r="T47" t="s">
+      <c r="AC47" t="s">
         <v>29</v>
       </c>
-      <c r="U47" t="s">
+      <c r="AD47" t="s">
         <v>22</v>
       </c>
-      <c r="V47">
+      <c r="AE47">
         <v>0.1467</v>
       </c>
-      <c r="W47">
+      <c r="AF47">
         <v>42</v>
       </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47">
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
         <v>42</v>
       </c>
-      <c r="Z47">
+      <c r="AI47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
         <v>26</v>
       </c>
-      <c r="B48">
+      <c r="K48">
         <v>1011</v>
       </c>
-      <c r="C48">
+      <c r="L48">
         <v>71</v>
       </c>
-      <c r="D48" t="s">
+      <c r="M48" t="s">
         <v>31</v>
       </c>
-      <c r="E48">
+      <c r="N48">
         <v>60.01</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
         <v>560399613</v>
       </c>
-      <c r="H48" s="1">
+      <c r="Q48" s="1">
         <v>43878</v>
       </c>
-      <c r="I48" s="2">
+      <c r="R48" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J48" s="3">
+      <c r="S48" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K48">
+      <c r="T48">
         <v>47</v>
       </c>
-      <c r="L48">
+      <c r="U48">
         <v>8.65</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
         <v>280</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S48">
+      <c r="Y48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB48">
         <v>50</v>
       </c>
-      <c r="T48" t="s">
+      <c r="AC48" t="s">
         <v>30</v>
       </c>
-      <c r="U48" t="s">
+      <c r="AD48" t="s">
         <v>22</v>
       </c>
-      <c r="V48">
+      <c r="AE48">
         <v>0.18223329999999999</v>
       </c>
-      <c r="W48">
+      <c r="AF48">
         <v>43</v>
       </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48">
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
         <v>43</v>
       </c>
-      <c r="Z48">
+      <c r="AI48">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
         <v>26</v>
       </c>
-      <c r="B49">
+      <c r="K49">
         <v>1011</v>
       </c>
-      <c r="C49">
+      <c r="L49">
         <v>71</v>
       </c>
-      <c r="D49" t="s">
+      <c r="M49" t="s">
         <v>31</v>
       </c>
-      <c r="E49">
+      <c r="N49">
         <v>60.01</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
         <v>560399613</v>
       </c>
-      <c r="H49" s="1">
+      <c r="Q49" s="1">
         <v>43878</v>
       </c>
-      <c r="I49" s="2">
+      <c r="R49" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J49" s="3">
+      <c r="S49" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K49">
+      <c r="T49">
         <v>48</v>
       </c>
-      <c r="L49">
+      <c r="U49">
         <v>13.67</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
         <v>87</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S49">
+      <c r="Y49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB49">
         <v>50</v>
       </c>
-      <c r="T49" t="s">
+      <c r="AC49" t="s">
         <v>29</v>
       </c>
-      <c r="U49" t="s">
+      <c r="AD49" t="s">
         <v>22</v>
       </c>
-      <c r="V49">
+      <c r="AE49">
         <v>0.17836669999999999</v>
       </c>
-      <c r="W49">
+      <c r="AF49">
         <v>44</v>
       </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49">
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
         <v>44</v>
       </c>
-      <c r="Z49">
+      <c r="AI49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
         <v>26</v>
       </c>
-      <c r="B50">
+      <c r="K50">
         <v>1011</v>
       </c>
-      <c r="C50">
+      <c r="L50">
         <v>71</v>
       </c>
-      <c r="D50" t="s">
+      <c r="M50" t="s">
         <v>31</v>
       </c>
-      <c r="E50">
+      <c r="N50">
         <v>60.01</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
         <v>560399613</v>
       </c>
-      <c r="H50" s="1">
+      <c r="Q50" s="1">
         <v>43878</v>
       </c>
-      <c r="I50" s="2">
+      <c r="R50" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J50" s="3">
+      <c r="S50" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K50">
+      <c r="T50">
         <v>49</v>
       </c>
-      <c r="L50">
+      <c r="U50">
         <v>11.16</v>
       </c>
-      <c r="M50">
+      <c r="V50">
         <v>2</v>
       </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
         <v>6490</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S50">
+      <c r="Y50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB50">
         <v>12</v>
       </c>
-      <c r="T50" t="s">
+      <c r="AC50" t="s">
         <v>30</v>
       </c>
-      <c r="U50" t="s">
+      <c r="AD50" t="s">
         <v>22</v>
       </c>
-      <c r="V50">
+      <c r="AE50">
         <v>0.1678</v>
       </c>
-      <c r="W50">
+      <c r="AF50">
         <v>45</v>
       </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50">
+      <c r="AG50">
+        <v>1</v>
+      </c>
+      <c r="AH50">
         <v>45</v>
       </c>
-      <c r="Z50">
+      <c r="AI50">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
         <v>26</v>
       </c>
-      <c r="B51">
+      <c r="K51">
         <v>1011</v>
       </c>
-      <c r="C51">
+      <c r="L51">
         <v>71</v>
       </c>
-      <c r="D51" t="s">
+      <c r="M51" t="s">
         <v>31</v>
       </c>
-      <c r="E51">
+      <c r="N51">
         <v>60.01</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
         <v>560399613</v>
       </c>
-      <c r="H51" s="1">
+      <c r="Q51" s="1">
         <v>43878</v>
       </c>
-      <c r="I51" s="2">
+      <c r="R51" s="2">
         <v>43878.718969907408</v>
       </c>
-      <c r="J51" s="3">
+      <c r="S51" s="3">
         <v>0.51063657407407403</v>
       </c>
-      <c r="K51">
+      <c r="T51">
         <v>50</v>
       </c>
-      <c r="L51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S51" t="s">
-        <v>32</v>
-      </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" t="s">
+        <v>32</v>
+      </c>
+      <c r="W51" t="s">
+        <v>32</v>
+      </c>
+      <c r="X51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC51" t="s">
         <v>30</v>
       </c>
-      <c r="U51" t="s">
-        <v>32</v>
-      </c>
-      <c r="V51" t="s">
-        <v>32</v>
-      </c>
-      <c r="W51">
+      <c r="AD51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF51">
         <v>46</v>
       </c>
-      <c r="X51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z51" t="s">
+      <c r="AG51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P52" s="1"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="3"/>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="3"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P53" s="1"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="3"/>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="3"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P54" s="1"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="3"/>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="3"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P55" s="1"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="3"/>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="3"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P56" s="1"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="3"/>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="3"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P57" s="1"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="3"/>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="3"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P58" s="1"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="3"/>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="3"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P59" s="1"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="3"/>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="3"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P60" s="1"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="3"/>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="3"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P61" s="1"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="3"/>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="3"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P62" s="1"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="3"/>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="3"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P63" s="1"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="3"/>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="3"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P64" s="1"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="3"/>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="3"/>
     </row>
-    <row r="65" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P65" s="1"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="3"/>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="3"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/social/S_1011.xlsx
+++ b/data/social/S_1011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6AE9EC-2B3D-8B4D-BFC3-A054072F487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CA2EC-7975-FA40-8B9A-F8E19F1A48F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="15380" windowHeight="7880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S_1009" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="33">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A41" sqref="A1:I68"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6348,84 +6348,9 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51">
-        <v>1011</v>
-      </c>
-      <c r="L51">
-        <v>71</v>
-      </c>
-      <c r="M51" t="s">
-        <v>31</v>
-      </c>
-      <c r="N51">
-        <v>60.01</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>560399613</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>43878</v>
-      </c>
-      <c r="R51" s="2">
-        <v>43878.718969907408</v>
-      </c>
-      <c r="S51" s="3">
-        <v>0.51063657407407403</v>
-      </c>
-      <c r="T51">
-        <v>50</v>
-      </c>
-      <c r="U51" t="s">
-        <v>32</v>
-      </c>
-      <c r="V51" t="s">
-        <v>32</v>
-      </c>
-      <c r="W51" t="s">
-        <v>32</v>
-      </c>
-      <c r="X51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF51">
-        <v>46</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="3"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -6843,7 +6768,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="3"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -6871,11 +6796,8 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="3"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -6904,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6930,35 +6852,6 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
         <v>0</v>
       </c>
     </row>

--- a/data/social/S_1011.xlsx
+++ b/data/social/S_1011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CA2EC-7975-FA40-8B9A-F8E19F1A48F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1561E-EA28-704B-B326-53BA533E0489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20300" yWindow="2600" windowWidth="19760" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S_1009" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="42">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>AmtWon</t>
+  </si>
+  <si>
+    <t>Clock.Information</t>
+  </si>
+  <si>
+    <t>EasyKey</t>
+  </si>
+  <si>
+    <t>ExperimentVersion</t>
+  </si>
+  <si>
+    <t>HardKey</t>
+  </si>
+  <si>
+    <t>RuntimeCapabilities</t>
+  </si>
+  <si>
+    <t>RuntimeVersion</t>
+  </si>
+  <si>
+    <t>RuntimeVersionExpected</t>
+  </si>
+  <si>
+    <t>StudioVersion</t>
   </si>
 </sst>
 </file>
@@ -964,69 +991,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="T1" t="s">
         <v>10</v>

--- a/data/social/S_1011.xlsx
+++ b/data/social/S_1011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1561E-EA28-704B-B326-53BA533E0489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6AE9EC-2B3D-8B4D-BFC3-A054072F487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20300" yWindow="2600" windowWidth="19760" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="15380" windowHeight="7880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S_1009" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="33">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -119,33 +119,6 @@
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>AmtWon</t>
-  </si>
-  <si>
-    <t>Clock.Information</t>
-  </si>
-  <si>
-    <t>EasyKey</t>
-  </si>
-  <si>
-    <t>ExperimentVersion</t>
-  </si>
-  <si>
-    <t>HardKey</t>
-  </si>
-  <si>
-    <t>RuntimeCapabilities</t>
-  </si>
-  <si>
-    <t>RuntimeVersion</t>
-  </si>
-  <si>
-    <t>RuntimeVersionExpected</t>
-  </si>
-  <si>
-    <t>StudioVersion</t>
   </si>
 </sst>
 </file>
@@ -989,71 +962,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A1:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>41</v>
       </c>
       <c r="T1" t="s">
         <v>10</v>
@@ -6375,9 +6348,84 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="3"/>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51">
+        <v>1011</v>
+      </c>
+      <c r="L51">
+        <v>71</v>
+      </c>
+      <c r="M51" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51">
+        <v>60.01</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>560399613</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>43878</v>
+      </c>
+      <c r="R51" s="2">
+        <v>43878.718969907408</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0.51063657407407403</v>
+      </c>
+      <c r="T51">
+        <v>50</v>
+      </c>
+      <c r="U51" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" t="s">
+        <v>32</v>
+      </c>
+      <c r="W51" t="s">
+        <v>32</v>
+      </c>
+      <c r="X51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF51">
+        <v>46</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -6795,7 +6843,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -6823,8 +6871,11 @@
       <c r="I65">
         <v>0</v>
       </c>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -6853,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6879,6 +6930,35 @@
         <v>0</v>
       </c>
       <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
     </row>
